--- a/data_index.xlsx
+++ b/data_index.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31612945-0D2B-4BD4-8053-08BC0C15D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eco-Sector" sheetId="1" r:id="rId1"/>
@@ -332,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,6 +479,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="thismessage://res/s_Siebel77/Portal/printerfriendly.gif">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank" tooltip="Scarica PDF"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -783,20 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="6" customWidth="1"/>
-    <col min="2" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="6" customWidth="1"/>
+    <col min="2" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -816,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -836,7 +842,7 @@
         <v>3.3354922048467461</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -856,7 +862,7 @@
         <v>11.457672174055292</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -876,7 +882,7 @@
         <v>1.3321842004531546</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -896,7 +902,7 @@
         <v>13.62859366639101</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -916,7 +922,7 @@
         <v>112.56046605062274</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -936,7 +942,7 @@
         <v>5.1291237962725642</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -957,7 +963,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -977,7 +983,7 @@
         <v>4.3409876198887494</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>5.5727214862553209</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>6.8994619088077034</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>7.5154043215258124</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>20.344419432140004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>3.6459143968871595</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>4.6249071429750561</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>2.8149164054336469</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>3.5262362965853167</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>4.2285244243874089</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>0.8790006557294755</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>3.7107190633236646</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>3.0000535412160283</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>0.93677442221271134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>3.0663645865826097</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>3.9133283048385294</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>4.3970588235294121</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>4.5586833070276782</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>3.458098041756926</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>4.7791443485380913</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>2.2635776036196171</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>0.36224968402406266</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>0.22857769914565756</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>0.47663832035107806</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>0.76499612263398753</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>0.73721091174141062</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>0.82545093486856447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>3.9282804842995254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>0.73009498742621859</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>0.79816244551437276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>0.90638744607301558</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>2.7347516484374617</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>0.48676297228715859</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>3.9575796529244331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>1.3296362475766055</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>254.23139745916515</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>85.663659990827085</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>0.66679836205839893</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1737,13 +1743,13 @@
         <v>3.2678506588644692E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50"/>
     </row>
   </sheetData>
@@ -1753,19 +1759,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>1.1052579670351346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0.88535339809506952</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>0.35158261306059702</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>6.9940210946764028</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>2.606373527209128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>0.29163823547016221</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>3.3373000273975868</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>1.3639342187256582</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>0.59425120716589375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>5.2489545201021975E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>29490.842105263157</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2031,16 +2037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>9.4050329614072489E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>0.2145547362971631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>9.4191987748717593E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>0.21316875120788753</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2166,19 +2170,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>9.1383251204211619E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>0.13880700874743326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>0.14717098384083474</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>0.25541157508195766</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>0.57342356771006564</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2324,19 +2326,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>0.11147742413351364</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>0.19242360762927807</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>0.19812302787807815</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2436,7 +2438,7 @@
         <v>8.7823354567950457E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2462,19 +2464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>79</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>0.40316907995659818</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>13.095400579601758</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>82</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>0.12981537556210948</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>83</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>2.1833406718438884</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>84</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>3.0505220979736718</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>85</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>0.35130200790220428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>86</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>1.4917085300044992</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>1.4642040540081478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>88</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>0.34464993175596004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>89</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>0.52276433686740331</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>2.6515646960282795</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>91</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>1.3921972987209175</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>0.2640970519878944</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>1.9261543327008224</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>11.501180237689608</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>95</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>0.65074356458065974</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>96</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>0.83742235932016951</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>97</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>6.0624939139843113</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>98</v>
       </c>
@@ -2875,7 +2877,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>99</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>0.8258828488762</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>100</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>1.8758695957844274</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>

--- a/data_index.xlsx
+++ b/data_index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31612945-0D2B-4BD4-8053-08BC0C15D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A0D7F-B980-4FA1-8D58-1FD38DD70418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eco-Sector" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,21 @@
     <sheet name="aziendale" sheetId="5" r:id="rId5"/>
     <sheet name="regione" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,15 +53,9 @@
     <t>Index2021</t>
   </si>
   <si>
-    <t>Settore di attività economica (Codice Ateco)</t>
-  </si>
-  <si>
     <t>A Agricoltura, silvicoltura e pesca</t>
   </si>
   <si>
-    <t>B Estrazione di minerali da cave e miniere</t>
-  </si>
-  <si>
     <t>C 10 Industrie alimentari</t>
   </si>
   <si>
@@ -63,84 +68,21 @@
     <t>C 13 Industrie tessili</t>
   </si>
   <si>
-    <t>C 14 Confezione di articoli di abbigliamento; confezione di articoli in pelle e pelliccia</t>
-  </si>
-  <si>
-    <t>C 15 Fabbricazione di articoli in pelle e simili</t>
-  </si>
-  <si>
-    <t>C 16 Industria del legno e dei prodotti in legno e sughero (esclusi i mobili); fabbricazione di articoli in paglia e materiali da intreccio</t>
-  </si>
-  <si>
-    <t>C 17 Fabbricazione di carta e di prodotti di carta</t>
-  </si>
-  <si>
-    <t>C 18 Stampa e riproduzione di supporti registrati</t>
-  </si>
-  <si>
-    <t>C 19 Fabbricazione di coke e prodotti derivanti dalla raffinazione del petrolio</t>
-  </si>
-  <si>
-    <t>C 20 Fabbricazione di prodotti chimici</t>
-  </si>
-  <si>
-    <t>C 21 Fabbricazione di prodotti farmaceutici di base e di preparati farmaceutici</t>
-  </si>
-  <si>
-    <t>C 22 Fabbricazione di articoli in gomma e materie plastiche</t>
-  </si>
-  <si>
-    <t>C 23 Fabbricazione di altri prodotti della lavorazione di minerali non metalliferi</t>
-  </si>
-  <si>
     <t>C 24 Metallurgia</t>
   </si>
   <si>
-    <t>C 25 Fabbricazione di prodotti in metallo (esclusi macchinari e attrezzature)</t>
-  </si>
-  <si>
-    <t>C 26 Fabbricazione di computer e prodotti di elettronica e ottica; apparecchi elettromedicali, apparecchi di misurazione e di orologi</t>
-  </si>
-  <si>
-    <t>C 27 Fabbricazione di apparecchiature elettriche ed apparecchiature per uso domestico non elettriche</t>
-  </si>
-  <si>
-    <t>C 28 Fabbricazione di macchinari ed apparecchiature nca</t>
-  </si>
-  <si>
-    <t>C 29 Fabbricazione di autoveicoli, rimorchi e semirimorchi</t>
-  </si>
-  <si>
-    <t>C 30 Fabbricazione di altri mezzi di trasporto</t>
-  </si>
-  <si>
     <t>C 31 Fabbricazione di mobili</t>
   </si>
   <si>
     <t>C 32 Altre industrie manifatturiere</t>
   </si>
   <si>
-    <t>C 33 Riparazione, manutenzione ed installazione di macchine ed apparecchiature</t>
-  </si>
-  <si>
-    <t>D Fornitura di energia elettrica, gas, vapore e aria condizionata</t>
-  </si>
-  <si>
-    <t>E Fornitura di acqua; reti fognarie, attivita' di gestione dei rifiuti e risanamento</t>
-  </si>
-  <si>
     <t>F Costruzioni</t>
   </si>
   <si>
-    <t>G Commercio all'ingrosso e al dettaglio; riparazione di autoveicoli e motocicli</t>
-  </si>
-  <si>
     <t>H Trasporto e magazzinaggio</t>
   </si>
   <si>
-    <t>I Attivita' dei servizi di alloggio e di ristorazione</t>
-  </si>
-  <si>
     <t>J Servizi di informazione e comunicazione</t>
   </si>
   <si>
@@ -150,42 +92,18 @@
     <t>L Attivita' immobiliari</t>
   </si>
   <si>
-    <t>M Attivita' professionali, scientifiche e tecniche</t>
-  </si>
-  <si>
-    <t>N Noleggio, agenzie di viaggio, servizi di supporto alle imprese</t>
-  </si>
-  <si>
-    <t>O Amministrazione pubblica e difesa; assicurazione sociale obbligatoria</t>
-  </si>
-  <si>
     <t>P Istruzione</t>
   </si>
   <si>
     <t>Q Sanita' e assistenza sociale</t>
   </si>
   <si>
-    <t>R Attivita' artistiche, sportive, di intrattenimento e divertimento</t>
-  </si>
-  <si>
     <t>S Altre attivita' di servizi</t>
   </si>
   <si>
-    <t>T Attivita' di famiglie e convivenze come datori di lavoro per personale domestico; produzione di beni e servizi indifferenziati per uso proprio da parte di famiglie e convivenze</t>
-  </si>
-  <si>
-    <t>U Organizzazioni ed organismi extraterritoriali</t>
-  </si>
-  <si>
     <t>X Non determinato</t>
   </si>
   <si>
-    <t>Totale</t>
-  </si>
-  <si>
-    <t>Tariffa INAIL (Grande gruppo)</t>
-  </si>
-  <si>
     <t>GG1 Lav. agricole e alimenti</t>
   </si>
   <si>
@@ -216,9 +134,6 @@
     <t>GG0 Attivita' varie</t>
   </si>
   <si>
-    <t>Gestione tariffaria</t>
-  </si>
-  <si>
     <t>Industria</t>
   </si>
   <si>
@@ -231,9 +146,6 @@
     <t xml:space="preserve"> Altre Attivita'</t>
   </si>
   <si>
-    <t>Ripartizione geografica</t>
-  </si>
-  <si>
     <t>Nord-Ovest</t>
   </si>
   <si>
@@ -249,9 +161,6 @@
     <t>Isole</t>
   </si>
   <si>
-    <t>Dimensione aziendale</t>
-  </si>
-  <si>
     <t>Da 1 a 9 lavoratori</t>
   </si>
   <si>
@@ -328,6 +237,108 @@
   </si>
   <si>
     <t>Sardegna</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Dimensione_aziendale</t>
+  </si>
+  <si>
+    <t>Ripartizione_geografica</t>
+  </si>
+  <si>
+    <t>Gestione_tariffaria</t>
+  </si>
+  <si>
+    <t>Tariffa_INAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settore_di_attività_economica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Estrazione di minerali </t>
+  </si>
+  <si>
+    <t>C 14 abbigliamento;pelle pelliccia</t>
+  </si>
+  <si>
+    <t>C 15 Fabbricazione  pelle e simili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 16 Industria del legno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 17 Fabbricazione di carta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 18 Stampa e riproduzione </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 19 Fabbricazione di coke </t>
+  </si>
+  <si>
+    <t>C 20 prodotti chimici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 21 prodotti farmaceutici di base </t>
+  </si>
+  <si>
+    <t>C 22 gomma e materie plastiche</t>
+  </si>
+  <si>
+    <t>C 23  lavorazione di minerali non metalliferi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 25 prodotti in metallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 26  computer e prodotti di elettronica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 27 apparecchiature elettriche </t>
+  </si>
+  <si>
+    <t>C 28  macchinari ed apparecchiature nca</t>
+  </si>
+  <si>
+    <t>C 29 autoveicoli, rimorchi e semirimorchi</t>
+  </si>
+  <si>
+    <t>C 30 altri mezzi di trasporto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 33 Riparazione, manutenzione </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Fornitura di energia </t>
+  </si>
+  <si>
+    <t>E Fornitura di acqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G Commercio all'ingrosso </t>
+  </si>
+  <si>
+    <t>I servizi di alloggio e di ristorazione</t>
+  </si>
+  <si>
+    <t>M professionali, scientifiche e tecniche</t>
+  </si>
+  <si>
+    <t>N Noleggio, agenzie di viaggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Amministrazione pubblica </t>
+  </si>
+  <si>
+    <t>R Attivita' artistiche, sportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Attivita' di famiglie e convivenze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Organizzazioni </t>
   </si>
 </sst>
 </file>
@@ -792,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -821,10 +832,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>3.8280363595235403</v>
@@ -841,10 +855,14 @@
       <c r="F2" s="1">
         <v>3.3354922048467461</v>
       </c>
+      <c r="G2" s="1">
+        <f>SUM(B2:F2)</f>
+        <v>17.901663948394003</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1">
         <v>13.149599214788156</v>
@@ -861,10 +879,14 @@
       <c r="F3" s="1">
         <v>11.457672174055292</v>
       </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G46" si="0">SUM(B3:F3)</f>
+        <v>61.939524480621515</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1.528904654463668</v>
@@ -881,10 +903,14 @@
       <c r="F4" s="1">
         <v>1.3321842004531546</v>
       </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3561097920774126</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>15.641095490587148</v>
@@ -901,10 +927,14 @@
       <c r="F5" s="1">
         <v>13.62859366639101</v>
       </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>75.68319886838232</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>129.18200080353554</v>
@@ -921,10 +951,14 @@
       <c r="F6" s="1">
         <v>112.56046605062274</v>
       </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>606.50391635194023</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>5.8865292373036509</v>
@@ -941,10 +975,14 @@
       <c r="F7" s="1">
         <v>5.1291237962725642</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>27.097812564207892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>4.1325356176619907</v>
@@ -961,11 +999,15 @@
       <c r="F8" s="1">
         <v>3.6008122819080914</v>
       </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>18.422877895531311</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>4.9820108771440523</v>
@@ -982,10 +1024,14 @@
       <c r="F9" s="1">
         <v>4.3409876198887494</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>22.837652678088091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>6.3956319369853203</v>
@@ -1002,10 +1048,14 @@
       <c r="F10" s="1">
         <v>5.5727214862553209</v>
       </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>30.476494911905409</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>7.9182889438882942</v>
@@ -1022,10 +1072,14 @@
       <c r="F11" s="1">
         <v>6.8994619088077034</v>
       </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>38.068052032231435</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1">
         <v>8.6251860992260951</v>
@@ -1042,10 +1096,14 @@
       <c r="F12" s="1">
         <v>7.5154043215258124</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>39.607809451986519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>23.348631181468303</v>
@@ -1062,10 +1120,14 @@
       <c r="F13" s="1">
         <v>20.344419432140004</v>
       </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>110.65047359913011</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>4.1842978540660827</v>
@@ -1082,10 +1144,14 @@
       <c r="F14" s="1">
         <v>3.6459143968871595</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>20.081852315672194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1">
         <v>5.3078561170081056</v>
@@ -1102,10 +1168,14 @@
       <c r="F15" s="1">
         <v>4.6249071429750561</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>25.371216942983303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>3.2305883771401014</v>
@@ -1122,10 +1192,14 @@
       <c r="F16" s="1">
         <v>2.8149164054336469</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>15.635413050920697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1">
         <v>4.0469471749883574</v>
@@ -1142,10 +1216,14 @@
       <c r="F17" s="1">
         <v>3.5262362965853167</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>19.335606502811761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>4.8529405105991197</v>
@@ -1162,10 +1240,14 @@
       <c r="F18" s="1">
         <v>4.2285244243874089</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>22.992540453698354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1">
         <v>1.0088005798029047</v>
@@ -1182,10 +1264,14 @@
       <c r="F19" s="1">
         <v>0.8790006557294755</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8765215937575936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>4.2586720705686014</v>
@@ -1202,10 +1288,14 @@
       <c r="F20" s="1">
         <v>3.7107190633236646</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>20.658345885526217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <v>3.4430642708757202</v>
@@ -1222,10 +1312,14 @@
       <c r="F21" s="1">
         <v>3.0000535412160283</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>16.828886515748636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1">
         <v>1.075105660175476</v>
@@ -1242,10 +1336,14 @@
       <c r="F22" s="1">
         <v>0.93677442221271134</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1879244259108601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>3.5191673096813383</v>
@@ -1262,10 +1360,14 @@
       <c r="F23" s="1">
         <v>3.0663645865826097</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>16.766528467951343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <v>4.4912001340931944</v>
@@ -1282,10 +1384,14 @@
       <c r="F24" s="1">
         <v>3.9133283048385294</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>21.894595658907004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>5.0463619812919829</v>
@@ -1302,10 +1408,14 @@
       <c r="F25" s="1">
         <v>4.3970588235294121</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>24.129714631711256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>5.2318531656280003</v>
@@ -1322,10 +1432,14 @@
       <c r="F26" s="1">
         <v>4.5586833070276782</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>24.732964226450328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1">
         <v>3.968747107070782</v>
@@ -1342,10 +1456,14 @@
       <c r="F27" s="1">
         <v>3.458098041756926</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>19.299154998014739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>5.4848691617481489</v>
@@ -1362,10 +1480,14 @@
       <c r="F28" s="1">
         <v>4.7791443485380913</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>25.816229098253253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1">
         <v>2.5978346933828877</v>
@@ -1382,10 +1504,14 @@
       <c r="F29" s="1">
         <v>2.2635776036196171</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>12.615577975479784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>0.41574222828493756</v>
@@ -1402,10 +1528,14 @@
       <c r="F30" s="1">
         <v>0.36224968402406266</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0357193164819107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1">
         <v>0.26233122117160318</v>
@@ -1422,10 +1552,14 @@
       <c r="F31" s="1">
         <v>0.22857769914565756</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2402395745305166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1">
         <v>0.54702236089620515</v>
@@ -1442,10 +1576,14 @@
       <c r="F32" s="1">
         <v>0.47663832035107806</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5967760184451776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1">
         <v>0.87796127002850688</v>
@@ -1462,10 +1600,14 @@
       <c r="F33" s="1">
         <v>0.76499612263398753</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8759169973600973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1">
         <v>0.84607308351160826</v>
@@ -1482,10 +1624,14 @@
       <c r="F34" s="1">
         <v>0.73721091174141062</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1276302418950905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
         <v>0.94734329976488341</v>
@@ -1502,10 +1648,14 @@
       <c r="F35" s="1">
         <v>0.82545093486856447</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4529618070064991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
         <v>4.5083602661263749</v>
@@ -1522,10 +1672,14 @@
       <c r="F36" s="1">
         <v>3.9282804842995254</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>20.655888753074404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1">
         <v>0.83790636767560944</v>
@@ -1542,10 +1696,14 @@
       <c r="F37" s="1">
         <v>0.73009498742621859</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0414877735736257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1">
         <v>0.916025184467679</v>
@@ -1562,10 +1720,14 @@
       <c r="F38" s="1">
         <v>0.79816244551437276</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3009157665992088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1">
         <v>1.0402315119613974</v>
@@ -1582,10 +1744,14 @@
       <c r="F39" s="1">
         <v>0.90638744607301558</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8151491142017857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1">
         <v>3.1385858822495862</v>
@@ -1602,10 +1768,14 @@
       <c r="F40" s="1">
         <v>2.7347516484374617</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>15.216121782008376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1">
         <v>0.55864209596334724</v>
@@ -1622,10 +1792,14 @@
       <c r="F41" s="1">
         <v>0.48676297228715859</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7381534354379431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1">
         <v>4.5419859728922258</v>
@@ -1642,10 +1816,14 @@
       <c r="F42" s="1">
         <v>3.9575796529244331</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>20.266636307002543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
         <v>1.5259804514810886</v>
@@ -1662,10 +1840,14 @@
       <c r="F43" s="1">
         <v>1.3296362475766055</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>7.060602875358251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1">
         <v>291.77313974591652</v>
@@ -1682,10 +1864,14 @@
       <c r="F44" s="1">
         <v>254.23139745916515</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>1358.9204512424631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1">
         <v>98.313407735820206</v>
@@ -1702,10 +1888,14 @@
       <c r="F45" s="1">
         <v>85.663659990827085</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>467.94455995852991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1">
         <v>0.765262881058831</v>
@@ -1722,28 +1912,20 @@
       <c r="F46" s="1">
         <v>0.66679836205839893</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3.7504063482591499E-2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3.2678506588644692E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>5.415833142857827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -1760,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,9 +1953,9 @@
     <col min="1" max="1" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1790,10 +1972,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1.2684687670130423</v>
@@ -1810,10 +1995,14 @@
       <c r="F2">
         <v>1.1052579670351346</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>6.2202223781091295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1.0160914164365034</v>
@@ -1830,10 +2019,14 @@
       <c r="F3">
         <v>0.88535339809506952</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">SUM(B3:F3)</f>
+        <v>4.9746238452331575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0.40349997647021912</v>
@@ -1850,10 +2043,14 @@
       <c r="F4">
         <v>0.35158261306059702</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.0404610124925018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>8.0268114585283659</v>
@@ -1870,10 +2067,14 @@
       <c r="F5">
         <v>6.9940210946764028</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>36.885542601624095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2.9912504709674717</v>
@@ -1890,10 +2091,14 @@
       <c r="F6">
         <v>2.606373527209128</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14.436159032727643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0.33470375604081598</v>
@@ -1910,10 +2115,14 @@
       <c r="F7">
         <v>0.29163823547016221</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.6035014853975791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>3.8301111389057643</v>
@@ -1930,10 +2139,14 @@
       <c r="F8">
         <v>3.3373000273975868</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>18.199106065628179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>1.5653431219816172</v>
@@ -1950,10 +2163,14 @@
       <c r="F9">
         <v>1.3639342187256582</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7.1165764659872988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0.68200286135170762</v>
@@ -1970,10 +2187,14 @@
       <c r="F10">
         <v>0.59425120716589375</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.3359115586689323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>6.0240550774604072E-2</v>
@@ -1990,10 +2211,14 @@
       <c r="F11">
         <v>5.2489545201021975E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.2882943138661872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>33845.684210526313</v>
@@ -2010,25 +2235,9 @@
       <c r="F12">
         <v>29490.842105263157</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>3.7504063482591499E-2</v>
-      </c>
-      <c r="C13">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D13">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E13">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F13">
-        <v>3.2678506588644692E-2</v>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>137187.1043460925</v>
       </c>
     </row>
   </sheetData>
@@ -2038,15 +2247,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2063,10 +2274,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0.11525036614556787</v>
@@ -2083,10 +2297,14 @@
       <c r="F2">
         <v>9.4050329614072489E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>0.53409870430453132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.24594068675594555</v>
@@ -2103,10 +2321,14 @@
       <c r="F3">
         <v>0.2145547362971631</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">SUM(B3:F3)</f>
+        <v>1.1773228011377408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0.11300216948251884</v>
@@ -2123,10 +2345,14 @@
       <c r="F4">
         <v>9.4191987748717593E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.52423041804266313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.24425269238278061</v>
@@ -2143,25 +2369,9 @@
       <c r="F5">
         <v>0.21316875120788753</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>3.8931274556876665E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.2678506588644692E-2</v>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.1572311810489799</v>
       </c>
     </row>
   </sheetData>
@@ -2171,18 +2381,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2199,10 +2411,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.10966421571177085</v>
@@ -2219,10 +2434,14 @@
       <c r="F2">
         <v>9.1383251204211619E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>0.50805174415219323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.16979656931020506</v>
@@ -2239,10 +2458,14 @@
       <c r="F3">
         <v>0.13880700874743326</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">SUM(B3:F3)</f>
+        <v>0.78205191276549069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.16936685617243991</v>
@@ -2259,10 +2482,14 @@
       <c r="F4">
         <v>0.14717098384083474</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.80735036171577568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.30630030736343333</v>
@@ -2279,10 +2506,14 @@
       <c r="F5">
         <v>0.25541157508195766</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.4394400201955679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.66267591772970424</v>
@@ -2299,25 +2530,9 @@
       <c r="F6">
         <v>0.57342356771006564</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>3.8931274556876665E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F7">
-        <v>3.2678506588644692E-2</v>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3.1899943641109187</v>
       </c>
     </row>
   </sheetData>
@@ -2327,20 +2542,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2357,10 +2570,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.12710921163659622</v>
@@ -2377,10 +2593,14 @@
       <c r="F2">
         <v>0.11147742413351364</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>0.60934965615161985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0.22508536938798654</v>
@@ -2397,10 +2617,14 @@
       <c r="F3">
         <v>0.19242360762927807</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">SUM(B3:F3)</f>
+        <v>1.066400741769449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0.24632703178202017</v>
@@ -2417,10 +2641,14 @@
       <c r="F4">
         <v>0.19812302787807815</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.127799449046206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0.10733486991237694</v>
@@ -2437,25 +2665,9 @@
       <c r="F5">
         <v>8.7823354567950457E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>3.8931274556876665E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.2678506588644692E-2</v>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.49323026689135008</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2680,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,9 +2688,9 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2495,10 +2707,13 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.4860503927295155</v>
@@ -2515,10 +2730,14 @@
       <c r="F2">
         <v>0.40316907995659818</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>2.2593594815264515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>14.673207684935884</v>
@@ -2535,10 +2754,14 @@
       <c r="F3">
         <v>13.095400579601758</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f t="shared" ref="G3:G22" si="0">SUM(B3:F3)</f>
+        <v>69.593185929298585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.15594309527649086</v>
@@ -2555,10 +2778,14 @@
       <c r="F4">
         <v>0.12981537556210948</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.71986490335552267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>2.7726216396835319</v>
@@ -2575,10 +2802,14 @@
       <c r="F5">
         <v>2.1833406718438884</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>12.477757317737996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>3.6253488254097115</v>
@@ -2595,10 +2826,14 @@
       <c r="F6">
         <v>3.0505220979736718</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>16.666850574958037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0.4259112078968702</v>
@@ -2615,10 +2850,14 @@
       <c r="F7">
         <v>0.35130200790220428</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.9718642417642704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>1.8130321518387784</v>
@@ -2635,10 +2874,14 @@
       <c r="F8">
         <v>1.4917085300044992</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.4243858985006526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1.7223620916853259</v>
@@ -2655,10 +2898,14 @@
       <c r="F9">
         <v>1.4642040540081478</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.1884850888237164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.4249124330239003</v>
@@ -2675,10 +2922,14 @@
       <c r="F10">
         <v>0.34464993175596004</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.9506256819170362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.6157820802423799</v>
@@ -2695,10 +2946,14 @@
       <c r="F11">
         <v>0.52276433686740331</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.912724477792572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>3.0831499460625675</v>
@@ -2715,10 +2970,14 @@
       <c r="F12">
         <v>2.6515646960282795</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>14.656498172069696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>1.6170122884967901</v>
@@ -2735,10 +2994,14 @@
       <c r="F13">
         <v>1.3921972987209175</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>7.7122540899493206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>0.29961436300941285</v>
@@ -2755,10 +3018,14 @@
       <c r="F14">
         <v>0.2640970519878944</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.4340226893813535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>2.2339376717396817</v>
@@ -2775,10 +3042,14 @@
       <c r="F15">
         <v>1.9261543327008224</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10.846991742182118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>14.16948704389212</v>
@@ -2795,10 +3066,14 @@
       <c r="F16">
         <v>11.501180237689608</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>65.389600403117456</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>0.782547744967521</v>
@@ -2815,10 +3090,14 @@
       <c r="F17">
         <v>0.65074356458065974</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3.64870514920224</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>1.0371629576824197</v>
@@ -2835,10 +3114,14 @@
       <c r="F18">
         <v>0.83742235932016951</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>4.8189029204724951</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>6.5239728112001627</v>
@@ -2855,10 +3138,14 @@
       <c r="F19">
         <v>6.0624939139843113</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>32.297652645957299</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>2.8471469556901496</v>
@@ -2875,11 +3162,15 @@
       <c r="F20">
         <v>2.419296480676318</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>13.418172481835279</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>0.94862618639492313</v>
@@ -2896,10 +3187,14 @@
       <c r="F21">
         <v>0.8258828488762</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4.5929614242172754</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>2.1984028224097143</v>
@@ -2916,26 +3211,13 @@
       <c r="F22">
         <v>1.8758695957844274</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>10.445366097202692</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23">
-        <v>3.8931274556876665E-2</v>
-      </c>
-      <c r="C23">
-        <v>3.7828426951296609E-2</v>
-      </c>
-      <c r="D23">
-        <v>3.6930625056347768E-2</v>
-      </c>
-      <c r="E23">
-        <v>3.5629864575676552E-2</v>
-      </c>
-      <c r="F23">
-        <v>3.2678506588644692E-2</v>
-      </c>
+      <c r="A23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
